--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="4530" yWindow="-105" windowWidth="10275" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -202,81 +202,96 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣战甲术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mc2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dc2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ac2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ac</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>说明：
     1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
     2、类别：20书籍
-    3、Sale:0不出售，1商店，2商城
-    4、由于是单机类挂机游戏，所以游戏技能需要变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤神兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣战甲术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ac2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ac</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    3、由于是单机类挂机游戏，所以游戏技能需要变化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -366,18 +381,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -685,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -701,29 +721,33 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -737,31 +761,40 @@
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -775,16 +808,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>100</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -799,22 +841,31 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>120</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>140</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>160</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -829,13 +880,22 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -850,22 +910,31 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>120</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>140</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>160</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -882,11 +951,29 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1">
+        <v>140</v>
+      </c>
+      <c r="K8" s="1">
+        <v>160</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -894,29 +981,38 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <f>A9</f>
+        <f t="shared" ref="C9:C30" si="0">A9</f>
         <v>220005</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>130</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
         <v>150</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>180</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -924,29 +1020,38 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>220006</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>140</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
         <v>160</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>190</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -954,20 +1059,29 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>220007</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -975,20 +1089,29 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>220008</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -996,20 +1119,29 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>220009</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1017,29 +1149,38 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>220010</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>150</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
         <v>180</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>220</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1047,20 +1188,29 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>220011</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1068,29 +1218,38 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>220012</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>140</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
         <v>160</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>190</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1098,35 +1257,44 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>220013</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
         <v>40</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1134,35 +1302,44 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>220014</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18" s="1">
         <v>40</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1170,29 +1347,38 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>220015</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1">
-        <v>110</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1">
+        <v>180</v>
+      </c>
+      <c r="K19" s="1">
+        <v>220</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1200,20 +1386,29 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>220016</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1221,35 +1416,44 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>220017</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>50</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1257,20 +1461,29 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>220018</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1278,20 +1491,29 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>220019</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -1299,20 +1521,29 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>220020</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -1320,20 +1551,29 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>220021</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -1341,29 +1581,38 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>220022</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="1">
+      <c r="I26" s="1">
         <v>70</v>
       </c>
-      <c r="G26" s="1">
+      <c r="J26" s="1">
         <v>80</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
         <v>100</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -1371,29 +1620,38 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>220023</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
         <v>70</v>
       </c>
-      <c r="G27" s="1">
+      <c r="J27" s="1">
         <v>80</v>
       </c>
-      <c r="H27" s="1">
+      <c r="K27" s="1">
         <v>100</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -1401,29 +1659,38 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>220024</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="I28" s="1">
         <v>70</v>
       </c>
-      <c r="G28" s="1">
+      <c r="J28" s="1">
         <v>80</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>100</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -1431,29 +1698,38 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>220025</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="I29" s="1">
         <v>70</v>
       </c>
-      <c r="G29" s="1">
+      <c r="J29" s="1">
         <v>80</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
         <v>100</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -1461,29 +1737,38 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>220026</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1">
-        <v>220</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>300</v>
+      </c>
+      <c r="J30" s="1">
+        <v>360</v>
+      </c>
+      <c r="K30" s="1">
+        <v>440</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -1498,13 +1783,22 @@
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -1512,20 +1806,29 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <f>A32</f>
+        <f t="shared" ref="C32:C37" si="1">A32</f>
         <v>220028</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -1533,20 +1836,29 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>220029</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -1554,35 +1866,44 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>220030</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
         <v>5</v>
       </c>
-      <c r="J34" s="1">
+      <c r="M34" s="1">
         <v>50</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -1590,35 +1911,44 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>220031</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
         <v>40</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -1626,20 +1956,29 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>220032</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1">
+        <v>70</v>
+      </c>
+      <c r="G36" s="1">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -1647,45 +1986,49 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>220033</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="I37" s="1">
         <v>70</v>
       </c>
-      <c r="G37" s="1">
+      <c r="J37" s="1">
         <v>80</v>
       </c>
-      <c r="H37" s="1">
+      <c r="K37" s="1">
         <v>100</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:C37 F5:L37">
+  <conditionalFormatting sqref="A5:C37 E5:O37">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$L5=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E37">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$L5=0</formula>
+      <formula>$O5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:J65466 D2:J4 E26:I31 D5:D37 E33:I37"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:M65466 D2:M2 D5:D37 D3:H4 I3:M4 E33:H37 I33:L37 E26:H31 I26:L31"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1696,125 +2039,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1830,25 +2151,25 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1868,31 +2189,31 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1906,17 +2227,17 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1930,23 +2251,69 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$P2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -292,6 +292,10 @@
     1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
     2、类别：20书籍
     3、由于是单机类挂机游戏，所以游戏技能需要变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -392,12 +396,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -705,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24:M31"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -721,14 +720,14 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
@@ -746,8 +745,9 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P1" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -770,31 +770,34 @@
         <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -820,13 +823,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>100</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -853,19 +859,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>120</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>140</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>160</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -888,14 +897,11 @@
       <c r="G6" s="1">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -922,19 +928,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>120</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>140</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>160</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -958,22 +967,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>120</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>140</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>160</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1000,19 +1012,22 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>130</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>150</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>180</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1039,19 +1054,22 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>140</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>160</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>190</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1074,14 +1092,11 @@
       <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1104,14 +1119,11 @@
       <c r="G12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -1134,14 +1146,11 @@
       <c r="G13" s="1">
         <v>16</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1168,19 +1177,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>150</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>180</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>220</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1203,14 +1215,11 @@
       <c r="G15" s="1">
         <v>50</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1237,19 +1246,22 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>140</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>160</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>190</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1285,16 +1297,19 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
         <v>40</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1330,16 +1345,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>40</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1354,19 +1372,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>180</v>
@@ -1374,11 +1392,14 @@
       <c r="K19" s="1">
         <v>220</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L19" s="1">
+        <v>260</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1401,14 +1422,11 @@
       <c r="G20" s="1">
         <v>15</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1432,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1444,16 +1462,19 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>50</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1476,14 +1497,11 @@
       <c r="G22" s="1">
         <v>9</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1506,14 +1524,11 @@
       <c r="G23" s="1">
         <v>18</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -1536,14 +1551,11 @@
       <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -1566,14 +1578,11 @@
       <c r="G25" s="1">
         <v>14</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -1600,19 +1609,22 @@
         <v>4</v>
       </c>
       <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
         <v>70</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>80</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>100</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -1639,19 +1651,22 @@
         <v>3</v>
       </c>
       <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
         <v>70</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>80</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>100</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -1678,19 +1693,22 @@
         <v>5</v>
       </c>
       <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
         <v>70</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>80</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>100</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -1705,31 +1723,34 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
         <v>20</v>
       </c>
-      <c r="F29" s="1">
-        <v>30</v>
-      </c>
-      <c r="G29" s="1">
-        <v>40</v>
-      </c>
       <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
         <v>4</v>
       </c>
-      <c r="I29" s="1">
-        <v>70</v>
-      </c>
       <c r="J29" s="1">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1">
+        <v>60</v>
+      </c>
+      <c r="L29" s="1">
         <v>80</v>
       </c>
-      <c r="K29" s="1">
-        <v>100</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -1744,31 +1765,34 @@
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
         <v>300</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>360</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>440</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -1791,14 +1815,14 @@
       <c r="G31" s="1">
         <v>22</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -1821,14 +1845,14 @@
       <c r="G32" s="1">
         <v>25</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -1851,14 +1875,14 @@
       <c r="G33" s="1">
         <v>17</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -1894,16 +1918,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <v>5</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>50</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -1939,16 +1966,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
         <v>40</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -1971,14 +2001,14 @@
       <c r="G36" s="1">
         <v>100</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2005,30 +2035,33 @@
         <v>5</v>
       </c>
       <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
         <v>70</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>80</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>100</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:C37 E5:O37">
+  <conditionalFormatting sqref="A5:C37 E5:P37">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O5=0</formula>
+      <formula>$P5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:M65466 D2:M2 D5:D37 D3:H4 I3:M4 E33:H37 I33:L37 E26:H31 I26:L31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:N65466 D2:N2 D5:D37 D3:I4 J3:N4 E33:I37 J33:M37 E26:I31 J26:M31"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -707,10 +707,10 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1597,19 +1597,19 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="F26" s="1">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1">
-        <v>30</v>
-      </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
         <v>70</v>
@@ -1642,16 +1642,16 @@
         <v>15</v>
       </c>
       <c r="F27" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>70</v>
@@ -1684,16 +1684,16 @@
         <v>35</v>
       </c>
       <c r="F28" s="1">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1">
         <v>50</v>
       </c>
-      <c r="G28" s="1">
-        <v>70</v>
-      </c>
       <c r="H28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1">
         <v>70</v>
@@ -1723,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -1765,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -2023,19 +2023,19 @@
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1">
         <v>70</v>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -707,10 +707,10 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1381,19 +1381,19 @@
         <v>5</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K19" s="1">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="L19" s="1">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="P19">
         <v>1</v>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -396,7 +396,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -707,10 +712,10 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -847,14 +852,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -862,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K5" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L5" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -897,6 +902,27 @@
       <c r="G6" s="1">
         <v>11</v>
       </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -973,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K8" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L8" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1000,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1015,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K9" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L9" s="1">
         <v>180</v>
@@ -1092,6 +1118,27 @@
       <c r="G11" s="1">
         <v>8</v>
       </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>120</v>
+      </c>
+      <c r="K11" s="1">
+        <v>140</v>
+      </c>
+      <c r="L11" s="1">
+        <v>160</v>
+      </c>
+      <c r="M11" s="1">
+        <v>51</v>
+      </c>
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -1119,6 +1166,12 @@
       <c r="G12" s="1">
         <v>16</v>
       </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1146,6 +1199,12 @@
       <c r="G13" s="1">
         <v>16</v>
       </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -1165,14 +1224,14 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
-        <v>17</v>
-      </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
@@ -1180,13 +1239,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K14" s="1">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L14" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1207,16 +1266,31 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>90</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>120</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -1249,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K16" s="1">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L16" s="1">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1300,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="1">
         <v>40</v>
@@ -1348,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
         <v>40</v>
@@ -1422,6 +1496,12 @@
       <c r="G20" s="1">
         <v>15</v>
       </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -1465,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>50</v>
@@ -1497,6 +1577,12 @@
       <c r="G22" s="1">
         <v>9</v>
       </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -1524,6 +1610,12 @@
       <c r="G23" s="1">
         <v>18</v>
       </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -1551,6 +1643,12 @@
       <c r="G24" s="1">
         <v>5</v>
       </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -1578,6 +1676,12 @@
       <c r="G25" s="1">
         <v>14</v>
       </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -1612,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K26" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L26" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -1654,13 +1758,13 @@
         <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K27" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L27" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -1696,13 +1800,13 @@
         <v>4</v>
       </c>
       <c r="J28" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K28" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L28" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -1738,13 +1842,13 @@
         <v>4</v>
       </c>
       <c r="J29" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K29" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L29" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -1815,6 +1919,9 @@
       <c r="G31" s="1">
         <v>22</v>
       </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
@@ -1845,6 +1952,9 @@
       <c r="G32" s="1">
         <v>25</v>
       </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
@@ -1875,6 +1985,9 @@
       <c r="G33" s="1">
         <v>17</v>
       </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
@@ -1921,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34" s="1">
         <v>50</v>
@@ -1969,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>40</v>
@@ -2001,6 +2114,9 @@
       <c r="G36" s="1">
         <v>100</v>
       </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
@@ -2038,13 +2154,13 @@
         <v>4</v>
       </c>
       <c r="J37" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K37" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L37" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2056,7 +2172,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A5:C37 E5:P37">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$P5=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2072,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2092,9 +2208,15 @@
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2256,35 @@
       <c r="M1" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -2149,10 +2298,34 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2188,9 +2361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -2226,9 +2399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2264,9 +2437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2302,9 +2475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -2343,6 +2516,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$P2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$P2=0</formula>
     </cfRule>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="-105" windowWidth="10275" windowHeight="7905"/>
+    <workbookView xWindow="-105" yWindow="45" windowWidth="5775" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -87,9 +87,6 @@
     <t>爆裂火焰</t>
   </si>
   <si>
-    <t>火墙</t>
-  </si>
-  <si>
     <t>瞬息移动</t>
   </si>
   <si>
@@ -102,161 +99,95 @@
     <t>隐身术</t>
   </si>
   <si>
-    <t>召唤骷髅</t>
-  </si>
-  <si>
     <t>困魔咒</t>
   </si>
   <si>
     <t>刺杀剑术</t>
   </si>
   <si>
+    <t>疾光电影</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>抗拒火环</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>攻杀剑术</t>
+  </si>
+  <si>
+    <t>大火球</t>
+  </si>
+  <si>
+    <t>基本剑术</t>
+  </si>
+  <si>
+    <t>治愈术</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>神圣战甲术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>幽灵盾</t>
-  </si>
-  <si>
-    <t>灵魂火符</t>
-  </si>
-  <si>
-    <t>疾光电影</t>
-  </si>
-  <si>
-    <t>雷电术</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>抗拒火环</t>
-  </si>
-  <si>
-    <t>施毒术</t>
-  </si>
-  <si>
-    <t>攻杀剑术</t>
-  </si>
-  <si>
-    <t>大火球</t>
-  </si>
-  <si>
-    <t>精神力战法</t>
-  </si>
-  <si>
-    <t>基本剑术</t>
-  </si>
-  <si>
-    <t>治愈术</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>召唤神兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣战甲术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dc2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mac</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ac2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +227,177 @@
   </si>
   <si>
     <t>cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道尊运用的自然之力，为目标恢复生命力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道尊对自然的冥想，提升攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标放毒，目标中毒后将削减防御并持续受到伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤灵符对目标进行打击，随道术提升而提升伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用符咒将自身隐遁，移动或攻击则隐身失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升目标的魔法防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升目标的物理防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神力战法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂火符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣战甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士入门剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本剑术大成之后可修攻杀，杀伤力更强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观枪术而悟，对敌人造成深层伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚全身怒气发出攻击，造成巨大伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个小火球灼烧目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤天雷审判目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将火球凝聚并压缩到高速旋转，对目标进行剧烈伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤火焰燃烧目标周围空间，对目标产生多次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤火焰附着于目标，对目标产生持续性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤天界神兽辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤亡灵界的骷髅辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚自身魔力，打击前方目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿起小刀，对准小鸡，砍下去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤雷云风暴，对目标进行多次审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝魔成铠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤强力的冰雪风暴圣目标造成剧烈伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敞开心灵，呼唤自然之力，看穿一切虚妄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼唤水木精灵，使一定范围内所有人加速恢复生命力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光如水幕，对敌人造成多次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群疗术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    此处配置为比例，实际效果需乘以角色主属性，再乘技能等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附体之炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附体之炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱寒冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxlv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -303,6 +405,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -372,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,10 +491,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -724,92 +851,86 @@
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7">
         <v>220000</v>
       </c>
       <c r="D4" s="1">
@@ -833,16 +954,28 @@
       <c r="J4" s="1">
         <v>100</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <f>A5</f>
@@ -875,16 +1008,22 @@
       <c r="L5" s="1">
         <v>170</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <f>A6</f>
@@ -894,14 +1033,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11</v>
-      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -920,19 +1059,19 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <f>A7</f>
@@ -963,22 +1102,28 @@
         <v>140</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <f>C7</f>
-        <v>220003</v>
+        <f>A8</f>
+        <v>220004</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1007,16 +1152,22 @@
       <c r="L8" s="1">
         <v>180</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C30" si="0">A9</f>
@@ -1049,16 +1200,22 @@
       <c r="L9" s="1">
         <v>180</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1091,16 +1248,22 @@
       <c r="L10" s="1">
         <v>190</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1131,24 +1294,24 @@
         <v>140</v>
       </c>
       <c r="L11" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M11" s="1">
-        <v>51</v>
-      </c>
-      <c r="N11" s="1">
-        <v>10</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1172,16 +1335,31 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1205,16 +1383,31 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1247,16 +1440,22 @@
       <c r="L14" s="1">
         <v>230</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1281,24 +1480,30 @@
         <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L15" s="1">
-        <v>120</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1331,16 +1536,22 @@
       <c r="L16" s="1">
         <v>300</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1374,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>40</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1422,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>3</v>
-      </c>
-      <c r="N18" s="1">
-        <v>40</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1469,20 +1680,25 @@
       <c r="L19" s="1">
         <v>330</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>220016</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1502,16 +1718,31 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1545,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1">
-        <v>50</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1583,16 +1814,31 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1616,20 +1862,34 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>220020</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1649,16 +1909,31 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1682,16 +1957,31 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1713,22 +2003,28 @@
         <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K26" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="L26" s="1">
-        <v>120</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="M26" s="1">
+        <v>102</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -1766,11 +2062,17 @@
       <c r="L27" s="1">
         <v>150</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -1808,11 +2110,17 @@
       <c r="L28" s="1">
         <v>120</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -1850,11 +2158,17 @@
       <c r="L29" s="1">
         <v>90</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -1892,11 +2206,17 @@
       <c r="L30" s="1">
         <v>440</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -1904,8 +2224,8 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <f>C7</f>
-        <v>220003</v>
+        <f>A31</f>
+        <v>220027</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1925,11 +2245,26 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -1937,8 +2272,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C37" si="1">A32</f>
-        <v>220028</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -1958,11 +2292,26 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -1970,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C33:C35" si="1">A33</f>
         <v>220029</v>
       </c>
       <c r="D33" s="1">
@@ -1991,11 +2340,26 @@
       <c r="I33" s="1">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2034,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>6</v>
-      </c>
-      <c r="N34" s="1">
-        <v>50</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2082,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>4</v>
-      </c>
-      <c r="N35" s="1">
-        <v>40</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2099,8 +2463,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>220032</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -2120,11 +2483,26 @@
       <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2132,7 +2510,6 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
         <v>220033</v>
       </c>
       <c r="D37" s="1">
@@ -2162,22 +2539,28 @@
       <c r="L37" s="1">
         <v>120</v>
       </c>
-      <c r="P37">
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:C37 E5:P37">
+  <conditionalFormatting sqref="E5:O37 A5:C37">
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$P5=0</formula>
+      <formula>$O5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:N65466 D2:N2 D5:D37 D3:I4 J3:N4 E33:I37 J33:M37 E26:I31 J26:M31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:M65466 D5:D37 D2:M4 E33:M37 E26:I31 M26:M31 J27:L31"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2188,343 +2571,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="O2">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2">
+    <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
+      <c r="F8" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$P2=0</formula>
+  <conditionalFormatting sqref="B4:D5">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$B9=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$P2=0</formula>
+  <conditionalFormatting sqref="B9:C10">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$B9=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="45" windowWidth="5775" windowHeight="9390"/>
+    <workbookView xWindow="-105" yWindow="45" windowWidth="5775" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -838,11 +838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1282,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>101</v>
@@ -2000,19 +2000,19 @@
         <v>20</v>
       </c>
       <c r="H26" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <v>102</v>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2744,13 +2744,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
       <c r="F9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -2574,7 +2574,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2634,7 +2634,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="45" windowWidth="5775" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Administrator</author>
     <author>Aspire</author>
   </authors>
   <commentList>
     <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能伤害类型
+1：攻
+2：魔
+3：道</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -52,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -345,10 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拿起小刀，对准小鸡，砍下去</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤雷云风暴，对目标进行多次审判</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,10 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>召唤强力的冰雪风暴圣目标造成剧烈伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敞开心灵，呼唤自然之力，看穿一切虚妄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -398,6 +420,46 @@
   </si>
   <si>
     <t>Maxlv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤强力的冰雪风暴对目标造成剧烈伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐日剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼唤逝去的先祖，获得赐福，大幅减少伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说盘古就是用开天斩开混沌，分天地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如太阳般地炙热剑芒，见者无不沉迷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿起小刀，对准敌人脖子，砍下去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰戒指：召唤一个小火球灼烧目标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +585,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -836,13 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -850,14 +932,15 @@
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -875,8 +958,9 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P1" s="11"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -887,43 +971,46 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -933,11 +1020,11 @@
       <c r="C4" s="7">
         <v>220000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -946,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>100</v>
@@ -961,16 +1048,19 @@
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -981,44 +1071,47 @@
         <f>A5</f>
         <v>220001</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L5" s="1">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -1029,23 +1122,23 @@
         <f>A6</f>
         <v>220002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1057,16 +1150,19 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1077,11 +1173,11 @@
         <f>A7</f>
         <v>220003</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1090,31 +1186,34 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -1125,11 +1224,11 @@
         <f>A8</f>
         <v>220004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1138,31 +1237,34 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L8" s="1">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1173,44 +1275,47 @@
         <f t="shared" ref="C9:C30" si="0">A9</f>
         <v>220005</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1221,11 +1326,11 @@
         <f t="shared" si="0"/>
         <v>220006</v>
       </c>
-      <c r="D10" s="1">
-        <v>3</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1234,31 +1339,34 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>110</v>
+      </c>
+      <c r="L10" s="1">
+        <v>120</v>
+      </c>
+      <c r="M10" s="1">
         <v>140</v>
       </c>
-      <c r="K10" s="1">
-        <v>160</v>
-      </c>
-      <c r="L10" s="1">
-        <v>190</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1269,24 +1377,24 @@
         <f t="shared" si="0"/>
         <v>220007</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>5</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
@@ -1297,16 +1405,19 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>101</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1317,23 +1428,23 @@
         <f t="shared" si="0"/>
         <v>220008</v>
       </c>
-      <c r="D12" s="1">
-        <v>3</v>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>12</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1347,41 +1458,44 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>220009</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>13</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>16</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1395,14 +1509,17 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1413,44 +1530,47 @@
         <f t="shared" si="0"/>
         <v>220010</v>
       </c>
-      <c r="D14" s="1">
-        <v>3</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>15</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>130</v>
+      </c>
+      <c r="L14" s="1">
+        <v>140</v>
+      </c>
+      <c r="M14" s="1">
         <v>170</v>
       </c>
-      <c r="K14" s="1">
-        <v>190</v>
-      </c>
-      <c r="L14" s="1">
-        <v>230</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1461,44 +1581,47 @@
         <f t="shared" si="0"/>
         <v>220011</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>17</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>20</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>110</v>
+      </c>
+      <c r="M15" s="1">
         <v>120</v>
       </c>
-      <c r="K15" s="1">
-        <v>140</v>
-      </c>
-      <c r="L15" s="1">
-        <v>170</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1509,44 +1632,47 @@
         <f t="shared" si="0"/>
         <v>220012</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>9</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="L16" s="1">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1557,23 +1683,23 @@
         <f t="shared" si="0"/>
         <v>220013</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>18</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>22</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1585,16 +1711,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1605,23 +1734,23 @@
         <f t="shared" si="0"/>
         <v>220014</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
         <v>15</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>18</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>22</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1633,16 +1762,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1653,44 +1785,47 @@
         <f t="shared" si="0"/>
         <v>220015</v>
       </c>
-      <c r="D19" s="1">
-        <v>3</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
       <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="L19" s="1">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1700,23 +1835,23 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>12</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>15</v>
       </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1730,14 +1865,17 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1748,24 +1886,24 @@
         <f t="shared" si="0"/>
         <v>220017</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>25</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>10</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
@@ -1778,14 +1916,17 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1796,23 +1937,23 @@
         <f t="shared" si="0"/>
         <v>220018</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>9</v>
       </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1826,14 +1967,17 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1844,23 +1988,23 @@
         <f t="shared" si="0"/>
         <v>220019</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>14</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>18</v>
       </c>
-      <c r="H23" s="1">
-        <v>3</v>
-      </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1874,14 +2018,17 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -1891,23 +2038,23 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1921,14 +2068,17 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -1939,24 +2089,24 @@
         <f t="shared" si="0"/>
         <v>220021</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>14</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
@@ -1969,42 +2119,45 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>220022</v>
       </c>
-      <c r="D26" s="1">
-        <v>3</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
         <v>15</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>17</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
@@ -2015,16 +2168,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
         <v>102</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2035,44 +2191,47 @@
         <f t="shared" si="0"/>
         <v>220023</v>
       </c>
-      <c r="D27" s="1">
-        <v>3</v>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
         <v>15</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>17</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>20</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L27" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2083,44 +2242,47 @@
         <f t="shared" si="0"/>
         <v>220024</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
         <v>35</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>40</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>50</v>
-      </c>
-      <c r="H28" s="1">
-        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
       </c>
       <c r="J28" s="1">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1">
+        <v>60</v>
+      </c>
+      <c r="L28" s="1">
+        <v>70</v>
+      </c>
+      <c r="M28" s="1">
         <v>90</v>
       </c>
-      <c r="L28" s="1">
-        <v>120</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2131,44 +2293,47 @@
         <f t="shared" si="0"/>
         <v>220025</v>
       </c>
-      <c r="D29" s="1">
-        <v>3</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>11</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>4</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>60</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>70</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>90</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2179,44 +2344,47 @@
         <f t="shared" si="0"/>
         <v>220026</v>
       </c>
-      <c r="D30" s="1">
-        <v>3</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
         <v>12</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>14</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>17</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>5</v>
       </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
       <c r="J30" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="L30" s="1">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2227,24 +2395,24 @@
         <f>A31</f>
         <v>220027</v>
       </c>
-      <c r="D31" s="1">
-        <v>3</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
         <v>15</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>18</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>22</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
       <c r="J31" s="1">
         <v>0</v>
       </c>
@@ -2257,14 +2425,17 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2274,24 +2445,24 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
         <v>16</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>25</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
       <c r="J32" s="1">
         <v>0</v>
       </c>
@@ -2304,14 +2475,17 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2322,24 +2496,24 @@
         <f t="shared" ref="C33:C35" si="1">A33</f>
         <v>220029</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>15</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>17</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
       <c r="J33" s="1">
         <v>0</v>
       </c>
@@ -2350,16 +2524,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>2</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2370,24 +2547,24 @@
         <f t="shared" si="1"/>
         <v>220030</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
         <v>16</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>20</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>25</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>10</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
@@ -2400,14 +2577,17 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2418,24 +2598,24 @@
         <f t="shared" si="1"/>
         <v>220031</v>
       </c>
-      <c r="D35" s="1">
-        <v>3</v>
+      <c r="D35">
+        <v>2</v>
       </c>
       <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
         <v>20</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>40</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>10</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
       <c r="J35" s="1">
         <v>0</v>
       </c>
@@ -2446,16 +2626,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>5</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2465,24 +2648,24 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="1">
-        <v>3</v>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
         <v>50</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>70</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>100</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>4</v>
       </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
@@ -2495,14 +2678,17 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2512,55 +2698,269 @@
       <c r="C37">
         <v>220033</v>
       </c>
-      <c r="D37" s="1">
-        <v>3</v>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
         <v>20</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>23</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>28</v>
-      </c>
-      <c r="H37" s="1">
-        <v>4</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
       </c>
       <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>70</v>
+      </c>
+      <c r="L37" s="1">
         <v>80</v>
       </c>
-      <c r="K37" s="1">
-        <v>90</v>
-      </c>
-      <c r="L37" s="1">
-        <v>120</v>
-      </c>
       <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37">
+        <v>100</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>220034</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>220034</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40</v>
+      </c>
+      <c r="H38" s="1">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>220035</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>220035</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>35</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>150</v>
+      </c>
+      <c r="L39" s="1">
+        <v>170</v>
+      </c>
+      <c r="M39" s="1">
+        <v>200</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>220036</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>60</v>
+      </c>
+      <c r="G40" s="1">
+        <v>70</v>
+      </c>
+      <c r="H40" s="1">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>300</v>
+      </c>
+      <c r="L40" s="1">
+        <v>340</v>
+      </c>
+      <c r="M40" s="1">
+        <v>400</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>220037</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <f>C5</f>
+        <v>220001</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1">
+        <v>110</v>
+      </c>
+      <c r="M41" s="1">
+        <v>130</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E5:O37 A5:C37">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$O5=0</formula>
+  <conditionalFormatting sqref="F5:P37 A5:D37 A38:B40 C39:D40 D38 P38:P41">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$P5=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:M39">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$P39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:O41 A41:D41">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$P41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:M65466 D5:D37 D2:M4 E33:M37 E26:I31 M26:M31 J27:L31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:M31 E5:E37 E2:N4 F33:N37 F26:J31 N26:N31 E38:N40 E42:N65466 E41"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2571,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2593,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2609,7 +3009,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>47</v>
@@ -2653,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -2690,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2727,49 +3127,69 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8">
         <v>20</v>
       </c>
       <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8">
         <v>20</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2779,13 +3199,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:D5">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B9=0</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$B10=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C10">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$B9=0</formula>
+  <conditionalFormatting sqref="B10:C11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B10=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360"/>
+    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -451,15 +451,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拿起小刀，对准敌人脖子，砍下去</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火焰戒指：召唤一个小火球灼烧目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手举起大刀，对准敌人，眯着眼睛，砍下去吧。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,17 +585,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -920,11 +910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -971,7 +961,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>90</v>
@@ -1054,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -1231,13 +1221,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2300,13 +2290,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H29" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -2503,13 +2493,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H33" s="1">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1">
         <v>2</v>
@@ -2805,13 +2795,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G39" s="1">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H39" s="1">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1">
         <v>5</v>
@@ -2855,13 +2845,13 @@
         <v>3</v>
       </c>
       <c r="F40" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
@@ -2933,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P41" s="1">
         <v>1</v>
@@ -2945,12 +2935,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F5:P37 A5:D37 A38:B40 C39:D40 D38 P38:P41">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$P5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:M39">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$P39=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2973,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3059,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -3090,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -3107,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -3127,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3147,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3199,12 +3189,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:D5">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B10=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C11">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$B10=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -910,11 +910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2493,13 +2493,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G33" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H33" s="1">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="I33" s="1">
         <v>2</v>
@@ -2544,13 +2544,13 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G34" s="1">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="H34" s="1">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
@@ -2595,13 +2595,13 @@
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
@@ -2745,13 +2745,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="G38" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H38" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
@@ -2896,13 +2896,13 @@
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -2963,7 +2963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -460,6 +460,10 @@
   </si>
   <si>
     <t>双手举起大刀，对准敌人，眯着眼睛，砍下去吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,13 +912,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -927,10 +931,11 @@
     <col min="6" max="10" width="9.5" style="1" customWidth="1"/>
     <col min="11" max="13" width="8.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -949,8 +954,9 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -993,14 +999,17 @@
       <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -1043,14 +1052,17 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1094,14 +1106,17 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1">
+        <v>600</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -1145,14 +1160,17 @@
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1196,14 +1214,17 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -1247,14 +1268,17 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="1">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1298,14 +1322,17 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="1">
+        <v>600</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1349,14 +1376,17 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="1">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1400,14 +1430,17 @@
       <c r="N11" s="1">
         <v>101</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1451,14 +1484,17 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -1502,14 +1538,17 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1553,14 +1592,17 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1604,14 +1646,17 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="1">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1655,14 +1700,17 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="1">
+        <v>500</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1706,14 +1754,17 @@
       <c r="N17" s="1">
         <v>3</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1757,14 +1808,17 @@
       <c r="N18" s="1">
         <v>4</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1808,14 +1862,17 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1832,40 +1889,43 @@
         <v>3</v>
       </c>
       <c r="F20" s="1">
+        <v>300</v>
+      </c>
+      <c r="G20" s="1">
+        <v>400</v>
+      </c>
+      <c r="H20" s="1">
+        <v>600</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="1">
+        <v>5000</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1909,14 +1969,17 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1960,14 +2023,17 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -2011,14 +2077,17 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -2061,14 +2130,17 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -2112,14 +2184,17 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -2163,14 +2238,17 @@
       <c r="N26" s="1">
         <v>102</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2214,14 +2292,17 @@
       <c r="N27" s="1">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2239,13 +2320,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
@@ -2265,14 +2346,17 @@
       <c r="N28" s="1">
         <v>0</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2316,14 +2400,17 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2367,14 +2454,17 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2392,40 +2482,43 @@
         <v>3</v>
       </c>
       <c r="F31" s="1">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G31" s="1">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="H31" s="1">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="I31" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M31" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2468,14 +2561,17 @@
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2519,14 +2615,17 @@
       <c r="N33" s="1">
         <v>2</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2570,14 +2669,17 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2621,14 +2723,17 @@
       <c r="N35" s="1">
         <v>5</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2671,14 +2776,17 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2721,14 +2829,17 @@
       <c r="N37" s="1">
         <v>0</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>220034</v>
       </c>
@@ -2771,14 +2882,17 @@
       <c r="N38" s="1">
         <v>6</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>220035</v>
       </c>
@@ -2821,14 +2935,17 @@
       <c r="N39" s="1">
         <v>0</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>220036</v>
       </c>
@@ -2871,14 +2988,17 @@
       <c r="N40" s="1">
         <v>0</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="1">
+        <v>500</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>220037</v>
       </c>
@@ -2922,35 +3042,38 @@
       <c r="N41" s="1">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="1">
+        <v>600</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F5:P37 A5:D37 A38:B40 C39:D40 D38 P38:P41">
+  <conditionalFormatting sqref="F5:Q37 A5:D37 A38:B40 C39:D40 D38 Q38:Q41 A41:D41">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$P5=0</formula>
+      <formula>$Q5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:M39">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$P39=0</formula>
+      <formula>$Q39=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:O41 A41:D41">
+  <conditionalFormatting sqref="F41:P41">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$P41=0</formula>
+      <formula>$Q41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:M31 E5:E37 E2:N4 F33:N37 F26:J31 N26:N31 E38:N40 E42:N65466 E41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:M31 E5:E37 E2:O4 F33:O37 F26:J31 N26:O31 E38:O40 E42:O65466 E41"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t>stiff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -928,14 +932,14 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -955,8 +959,9 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -988,28 +993,31 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>100</v>
@@ -1050,19 +1058,22 @@
         <v>100</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1095,28 +1106,31 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
         <v>100</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>110</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>130</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1">
-        <v>600</v>
-      </c>
-      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -1158,19 +1172,22 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1203,28 +1220,31 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
         <v>100</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>110</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>130</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -1257,28 +1277,31 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
         <v>100</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>110</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>130</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
       <c r="O8" s="1">
-        <v>500</v>
-      </c>
-      <c r="P8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1311,28 +1334,31 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
         <v>110</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>120</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>140</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
       <c r="O9" s="1">
-        <v>600</v>
-      </c>
-      <c r="P9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1365,28 +1391,31 @@
         <v>1</v>
       </c>
       <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1">
         <v>110</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>120</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>140</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
-        <v>300</v>
-      </c>
-      <c r="P10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1428,19 +1457,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>101</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1487,14 +1519,17 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -1541,14 +1576,17 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1581,28 +1619,31 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1">
         <v>130</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>140</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>170</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
       <c r="O14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1635,28 +1676,31 @@
         <v>2</v>
       </c>
       <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
         <v>100</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>110</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>120</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
       <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <v>500</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1689,28 +1733,31 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
         <v>130</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>140</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>170</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
       <c r="O16" s="1">
-        <v>500</v>
-      </c>
-      <c r="P16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1752,19 +1799,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1806,19 +1856,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>4</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1851,28 +1904,31 @@
         <v>1</v>
       </c>
       <c r="K19" s="1">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1">
         <v>150</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>170</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>200</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1880,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>220021</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1898,34 +1954,37 @@
         <v>600</v>
       </c>
       <c r="I20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>20</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>30</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
       <c r="O20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="P20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1972,14 +2031,17 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -2026,14 +2088,17 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -2080,14 +2145,17 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -2133,14 +2201,17 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -2148,8 +2219,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>220021</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2187,14 +2257,17 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -2236,19 +2309,22 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>102</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2281,28 +2357,31 @@
         <v>2</v>
       </c>
       <c r="K27" s="1">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1">
         <v>80</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>90</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>110</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2335,28 +2414,31 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
         <v>60</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>70</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>90</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
       <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
         <v>1000</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2389,28 +2471,31 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
+        <v>20</v>
+      </c>
+      <c r="L29" s="1">
         <v>60</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>70</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>90</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2443,28 +2528,31 @@
         <v>1</v>
       </c>
       <c r="K30" s="1">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1">
         <v>240</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>280</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>350</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2497,28 +2585,31 @@
         <v>1</v>
       </c>
       <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
         <v>10</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>20</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>30</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
       <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
         <v>5000</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2564,14 +2655,17 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2613,19 +2707,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <v>2</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2672,14 +2769,17 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2721,19 +2821,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <v>5</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2779,14 +2882,17 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2818,28 +2924,31 @@
         <v>4</v>
       </c>
       <c r="K37" s="1">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1">
         <v>70</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>80</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>100</v>
       </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>220034</v>
       </c>
@@ -2880,19 +2989,22 @@
         <v>0</v>
       </c>
       <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>6</v>
       </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>220035</v>
       </c>
@@ -2924,28 +3036,31 @@
         <v>2</v>
       </c>
       <c r="K39" s="1">
+        <v>40</v>
+      </c>
+      <c r="L39" s="1">
         <v>150</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>170</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>200</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>220036</v>
       </c>
@@ -2977,28 +3092,31 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
+        <v>45</v>
+      </c>
+      <c r="L40" s="1">
         <v>300</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>340</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>400</v>
       </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
       <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
         <v>500</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>220037</v>
       </c>
@@ -3031,49 +3149,52 @@
         <v>1</v>
       </c>
       <c r="K41" s="1">
+        <v>8</v>
+      </c>
+      <c r="L41" s="1">
         <v>100</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>110</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>130</v>
       </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
       <c r="O41" s="1">
-        <v>600</v>
-      </c>
-      <c r="P41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F5:Q37 A5:D37 A38:B40 C39:D40 D38 Q38:Q41 A41:D41">
+  <conditionalFormatting sqref="F5:R37 A5:D37 A38:B40 C39:D40 D38 R38:R41 A41:D41">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$Q5=0</formula>
+      <formula>$R5=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:M39">
+  <conditionalFormatting sqref="L39:N39">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$Q39=0</formula>
+      <formula>$R39=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:P41">
+  <conditionalFormatting sqref="F41:Q41">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$Q41=0</formula>
+      <formula>$R41=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:M31 E5:E37 E2:O4 F33:O37 F26:J31 N26:O31 E38:O40 E42:O65466 E41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L27:N31 E5:E37 E2:P4 F33:P37 F26:K31 O26:P31 E38:P40 E42:P65466 E41"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3087,7 +3208,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3240,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
         <v>5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3260,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="75" windowWidth="5775" windowHeight="9360"/>
+    <workbookView xWindow="-105" yWindow="75" windowWidth="19965" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>传说盘古就是用开天斩开混沌，分天地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>如太阳般地炙热剑芒，见者无不沉迷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,6 +464,38 @@
   </si>
   <si>
     <t>basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥火咒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚附带幽冥力量的符咒，对目标造成深层伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂雷闪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤狂暴的雷电，对目标进行毁灭打击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以心印之，将情绪封入火焰，焚化天地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天辟地</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,12 +621,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -916,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -972,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>90</v>
@@ -993,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
@@ -1008,7 +1031,7 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -1067,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R4" s="2">
         <v>1</v>
@@ -1442,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1622,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M14" s="1">
         <v>140</v>
@@ -1736,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M16" s="1">
         <v>140</v>
@@ -1948,10 +1971,10 @@
         <v>300</v>
       </c>
       <c r="G20" s="1">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="H20" s="1">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
@@ -2294,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2573,10 +2596,10 @@
         <v>300</v>
       </c>
       <c r="G31" s="1">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="H31" s="1">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
@@ -2886,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3054,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R39" s="1">
         <v>1</v>
@@ -3068,7 +3091,7 @@
         <v>95</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>220036</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3110,10 +3133,10 @@
         <v>500</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
@@ -3121,55 +3144,223 @@
         <v>220037</v>
       </c>
       <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>220037</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>50</v>
+      </c>
+      <c r="L41" s="1">
+        <v>180</v>
+      </c>
+      <c r="M41" s="1">
+        <v>200</v>
+      </c>
+      <c r="N41" s="1">
+        <v>240</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>220038</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <v>220038</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1">
+        <v>24</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>50</v>
+      </c>
+      <c r="L42" s="1">
+        <v>180</v>
+      </c>
+      <c r="M42" s="1">
+        <v>200</v>
+      </c>
+      <c r="N42" s="1">
+        <v>240</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>850</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>220039</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>220039</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>300</v>
+      </c>
+      <c r="G43" s="1">
+        <v>400</v>
+      </c>
+      <c r="H43" s="1">
+        <v>600</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1">
+        <v>100</v>
+      </c>
+      <c r="M43" s="1">
+        <v>110</v>
+      </c>
+      <c r="N43" s="1">
+        <v>130</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>220990</v>
+      </c>
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <f>C5</f>
         <v>220001</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
         <v>30</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G44" s="1">
         <v>40</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H44" s="1">
         <v>60</v>
       </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
         <v>8</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L44" s="1">
         <v>100</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M44" s="1">
         <v>110</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N44" s="1">
         <v>130</v>
       </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R41" s="1">
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3178,23 +3369,18 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F5:R37 A5:D37 A38:B40 C39:D40 D38 R38:R41 A41:D41">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="F5:R37 A5:D37 A38:B40 C39:D40 D38 R38:R43 F44:R44 A41:D44">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$R5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:N39">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$R39=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:Q41">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$R41=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L27:N31 E5:E37 E2:P4 F33:P37 F26:K31 O26:P31 E38:P40 E42:P65466 E41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L27:N31 E5:E37 E2:P4 F33:P37 F26:K31 O26:P31 E44 E38:P43 E45:P65466"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="75" windowWidth="19965" windowHeight="9360"/>
+    <workbookView xWindow="-90" yWindow="135" windowWidth="11505" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="buff" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$P$45</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -175,18 +178,6 @@
   </si>
   <si>
     <t>buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -230,18 +221,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -451,10 +430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰戒指：召唤一个小火球灼烧目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>双手举起大刀，对准敌人，眯着眼睛，砍下去吧。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -496,6 +471,38 @@
   </si>
   <si>
     <t>开天辟地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤白虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤四方守护之白虎投影分身辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤元素界的撒非分身辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤撒非</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +628,22 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -939,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -955,16 +977,19 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
-    <col min="6" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -981,66 +1006,58 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1072,31 +1089,25 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>100</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1117,48 +1128,42 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K5" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L5" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>130</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>220002</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <f>A6</f>
@@ -1174,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1192,25 +1197,19 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1234,45 +1233,39 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K7" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>130</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>220004</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <f>A8</f>
@@ -1288,43 +1281,37 @@
         <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L8" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>130</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1345,43 +1332,37 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="1">
-        <v>110</v>
-      </c>
       <c r="M9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>140</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1405,45 +1386,39 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="L10" s="1">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>140</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>220007</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1459,13 +1434,13 @@
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1477,25 +1452,19 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>101</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1507,7 +1476,7 @@
         <v>220008</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1516,13 +1485,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1539,32 +1508,26 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>220009</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>220009</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1573,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1596,20 +1559,14 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1630,43 +1587,37 @@
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="L14" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M14" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>170</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
         <v>800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1687,48 +1638,42 @@
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L15" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>120</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
         <v>500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>220012</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1744,48 +1689,42 @@
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K16" s="1">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="L16" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>170</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
         <v>400</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>220013</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1801,13 +1740,13 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1819,30 +1758,24 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
-        <v>3</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>220014</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1858,13 +1791,13 @@
         <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1876,25 +1809,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="1">
-        <v>4</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1915,43 +1842,37 @@
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K19" s="1">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="L19" s="1">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="M19" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>200</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1971,48 +1892,42 @@
         <v>300</v>
       </c>
       <c r="G20" s="1">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1">
         <v>10</v>
       </c>
       <c r="M20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>30</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>220017</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2028,19 +1943,19 @@
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>10081</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -2051,20 +1966,14 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -2076,7 +1985,7 @@
         <v>220018</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -2085,13 +1994,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2108,20 +2017,14 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -2133,7 +2036,7 @@
         <v>220019</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -2142,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="G23" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -2165,20 +2068,14 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -2189,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -2198,13 +2095,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2221,20 +2118,14 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -2245,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2254,13 +2145,13 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2277,25 +2168,19 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>220022</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2311,13 +2196,13 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2329,25 +2214,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
       </c>
-      <c r="O26" s="1">
-        <v>102</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2368,43 +2247,37 @@
         <v>15</v>
       </c>
       <c r="G27" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K27" s="1">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="L27" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>110</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2425,43 +2298,37 @@
         <v>100</v>
       </c>
       <c r="G28" s="1">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
       </c>
       <c r="J28" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>90</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
         <v>1000</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2482,43 +2349,37 @@
         <v>9</v>
       </c>
       <c r="G29" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1">
+        <v>60</v>
+      </c>
+      <c r="L29" s="1">
         <v>15</v>
       </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
-      <c r="K29" s="1">
-        <v>20</v>
-      </c>
-      <c r="L29" s="1">
-        <v>60</v>
-      </c>
       <c r="M29" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>90</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2539,43 +2400,37 @@
         <v>12</v>
       </c>
       <c r="G30" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K30" s="1">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="L30" s="1">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="M30" s="1">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>350</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2596,43 +2451,37 @@
         <v>300</v>
       </c>
       <c r="G31" s="1">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>10</v>
       </c>
       <c r="M31" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>30</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
         <v>5000</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2643,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -2652,13 +2501,13 @@
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -2675,20 +2524,14 @@
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2709,13 +2552,13 @@
         <v>150</v>
       </c>
       <c r="G33" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2727,25 +2570,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>2</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2763,22 +2600,22 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G34" s="1">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>10083</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -2789,20 +2626,14 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2823,13 +2654,13 @@
         <v>60</v>
       </c>
       <c r="G35" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2841,25 +2672,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
-        <v>5</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2870,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2879,13 +2704,13 @@
         <v>50</v>
       </c>
       <c r="G36" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2902,20 +2727,14 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2935,48 +2754,42 @@
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
       </c>
       <c r="J37" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K37" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="L37" s="1">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M37" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1">
-        <v>100</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>220034</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>220034</v>
@@ -2991,13 +2804,13 @@
         <v>150</v>
       </c>
       <c r="G38" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -3009,30 +2822,24 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
       </c>
-      <c r="O38" s="1">
-        <v>6</v>
+      <c r="O38" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>220035</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <v>220035</v>
@@ -3047,48 +2854,42 @@
         <v>50</v>
       </c>
       <c r="G39" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K39" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="L39" s="1">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="M39" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
-        <v>200</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>220036</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>220036</v>
@@ -3103,48 +2904,42 @@
         <v>70</v>
       </c>
       <c r="G40" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K40" s="1">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="L40" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M40" s="1">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>400</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="P40" s="1">
-        <v>500</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>220037</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>220037</v>
@@ -3159,48 +2954,42 @@
         <v>18</v>
       </c>
       <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>50</v>
+      </c>
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1">
         <v>20</v>
       </c>
-      <c r="H41" s="1">
-        <v>24</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>50</v>
-      </c>
-      <c r="L41" s="1">
-        <v>180</v>
-      </c>
       <c r="M41" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>240</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>220038</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>220038</v>
@@ -3215,48 +3004,42 @@
         <v>18</v>
       </c>
       <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>50</v>
+      </c>
+      <c r="K42" s="1">
+        <v>180</v>
+      </c>
+      <c r="L42" s="1">
         <v>20</v>
       </c>
-      <c r="H42" s="1">
-        <v>24</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>50</v>
-      </c>
-      <c r="L42" s="1">
-        <v>180</v>
-      </c>
       <c r="M42" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>240</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0</v>
+        <v>850</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="P42" s="1">
-        <v>850</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>220039</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>220039</v>
@@ -3271,116 +3054,169 @@
         <v>300</v>
       </c>
       <c r="G43" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H43" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1">
         <v>10</v>
       </c>
       <c r="J43" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K43" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L43" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>220040</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="1">
-        <v>130</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
+      <c r="C44">
+        <v>220040</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>800</v>
+      </c>
+      <c r="G44" s="1">
+        <v>150</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>11022</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>220041</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45">
+        <v>220041</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10102</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>220990</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <f>C5</f>
-        <v>220001</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1">
-        <v>30</v>
-      </c>
-      <c r="G44" s="1">
-        <v>40</v>
-      </c>
-      <c r="H44" s="1">
-        <v>60</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1">
-        <v>8</v>
-      </c>
-      <c r="L44" s="1">
-        <v>100</v>
-      </c>
-      <c r="M44" s="1">
-        <v>110</v>
-      </c>
-      <c r="N44" s="1">
-        <v>130</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R44" s="1">
+      <c r="P45" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:P45"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F5:R37 A5:D37 A38:B40 C39:D40 D38 R38:R43 F44:R44 A41:D44">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$R5=0</formula>
+  <conditionalFormatting sqref="A5:D37 F5:P37 A38:B40 C39:D40 D38 A41:D43 A44 P38:P45">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$P5=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:N39">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$R39=0</formula>
+  <conditionalFormatting sqref="K39:L39">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$P39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:D44 F44:O44">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$P44=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$P45=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:D45 F45:O45">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$P45=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L27:N31 E5:E37 E2:P4 F33:P37 F26:K31 O26:P31 E44 E38:P43 E45:P65466"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:L31 E5:E37 M26:N31 F26:J31 E2:N4 F33:N37 E38:N65466"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3413,7 +3249,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3423,22 +3259,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -3473,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -3498,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8">
         <v>25</v>
@@ -3518,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8">
         <v>25</v>
@@ -3538,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8">
         <v>25</v>
@@ -3558,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C9" s="8">
         <v>15</v>
@@ -3598,7 +3434,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8">
         <v>20</v>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="195" windowWidth="11505" windowHeight="9240"/>
+    <workbookView xWindow="4470" yWindow="-45" windowWidth="16035" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="damage" sheetId="3" r:id="rId2"/>
     <sheet name="buff" sheetId="2" r:id="rId3"/>
     <sheet name="summon" sheetId="6" r:id="rId4"/>
+    <sheet name="treat" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$H$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -111,9 +112,6 @@
   </si>
   <si>
     <t>群体治疗术</t>
-  </si>
-  <si>
-    <t>心灵启示</t>
   </si>
   <si>
     <t>野蛮冲撞</t>
@@ -232,10 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提升目标的物理防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>治愈术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,10 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>敞开心灵，呼唤自然之力，看穿一切虚妄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>呼唤水木精灵，使一定范围内所有人加速恢复生命力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -416,14 +406,6 @@
   </si>
   <si>
     <t>开天辟地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_add</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -536,6 +518,49 @@
   </si>
   <si>
     <t>add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升目标的物理防御及魔法防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆月莲华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光如月华般，无孔不入。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体施毒术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr_basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr_add</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +699,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -987,13 +1017,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1002,15 +1032,13 @@
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="77.25" customHeight="1">
+    <row r="1" spans="1:8" ht="62.25" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1019,47 +1047,39 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1">
+        <v>106</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7">
         <v>220000</v>
@@ -1068,30 +1088,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>220001</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <f>A5</f>
@@ -1101,30 +1115,24 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>220002</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <f>A6</f>
@@ -1134,30 +1142,24 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>220003</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <f>A7</f>
@@ -1167,30 +1169,24 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>220004</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f>A8</f>
@@ -1200,30 +1196,24 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>220005</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C30" si="0">A9</f>
@@ -1233,30 +1223,24 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>220006</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1266,30 +1250,24 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
         <v>6</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>220007</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1302,27 +1280,21 @@
         <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
         <v>101</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>220008</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1332,30 +1304,24 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>220009</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1365,30 +1331,24 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>220010</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1398,30 +1358,24 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>220011</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1431,30 +1385,24 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>220012</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1464,30 +1412,24 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>220013</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1497,30 +1439,24 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
         <v>102</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>220014</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1530,30 +1466,24 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>220015</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1563,30 +1493,24 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
         <v>10</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>220016</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>220021</v>
@@ -1595,30 +1519,24 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>220017</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1628,30 +1546,24 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>220018</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1661,30 +1573,24 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>220019</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1694,30 +1600,24 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>220020</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1726,30 +1626,24 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>220021</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1758,30 +1652,24 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>220022</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1791,30 +1679,24 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>220023</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1824,30 +1706,24 @@
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
         <v>11</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>220024</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -1857,30 +1733,24 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
         <v>12</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="H28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>220025</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -1890,30 +1760,24 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
         <v>13</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>220026</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1923,30 +1787,24 @@
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
         <v>14</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>220027</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <f>A31</f>
@@ -1956,57 +1814,45 @@
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>220028</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>220007</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2021,25 +1867,19 @@
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="H33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2054,25 +1894,19 @@
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1">
-        <v>4</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2087,25 +1921,19 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2119,25 +1947,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2151,30 +1973,24 @@
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
         <v>15</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="H37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>220034</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>220034</v>
@@ -2183,30 +1999,24 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>220035</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>220035</v>
@@ -2215,30 +2025,24 @@
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
         <v>16</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="H39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>220036</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>220036</v>
@@ -2247,293 +2051,265 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
         <v>17</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="H40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>220037</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C41">
-        <v>220037</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
         <v>18</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="H41" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>220038</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C42">
-        <v>220038</v>
+        <v>220037</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
         <v>19</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="H42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>220039</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43">
-        <v>220039</v>
+        <v>220038</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>10</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
         <v>20</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="H43" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>220040</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C44">
-        <v>220040</v>
+        <v>220039</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1">
-        <v>4</v>
-      </c>
-      <c r="I44" s="1">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>220041</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>220041</v>
+        <v>220040</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
-        <v>10</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>220042</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C46">
-        <v>220042</v>
+        <v>220041</v>
       </c>
       <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
         <v>10</v>
       </c>
-      <c r="E46" s="1">
-        <v>50</v>
-      </c>
       <c r="F46" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>5</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
         <v>4</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="H46" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>220043</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C47">
-        <v>220043</v>
+        <v>220042</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>220044</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C48">
-        <v>220044</v>
+        <v>220043</v>
       </c>
       <c r="D48" s="1">
         <v>10</v>
       </c>
       <c r="E48" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
       </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>101</v>
+      <c r="H48" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>220045</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49">
+        <v>220044</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J48"/>
+  <autoFilter ref="A3:H49"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:J50">
-    <cfRule type="expression" dxfId="2" priority="9">
+  <conditionalFormatting sqref="A5:H51">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D37 E26:I31 D38:I65466 E33:I37 D2:I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D37 D2:G4 E33:G37 D38:G65467 E26:G31"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2544,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2555,36 +2331,40 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2592,22 +2372,25 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2615,22 +2398,25 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -2638,22 +2424,25 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -2661,22 +2450,25 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -2684,22 +2476,25 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>110</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -2707,22 +2502,25 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
-        <v>110</v>
-      </c>
       <c r="G7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -2730,22 +2528,25 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>17</v>
       </c>
-      <c r="F8" s="1">
-        <v>120</v>
-      </c>
       <c r="G8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -2753,22 +2554,25 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
       <c r="G9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -2776,22 +2580,25 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
-        <v>120</v>
-      </c>
       <c r="G10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -2799,22 +2606,25 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>35</v>
       </c>
-      <c r="F11" s="1">
-        <v>150</v>
-      </c>
       <c r="G11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -2822,22 +2632,25 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>14</v>
       </c>
-      <c r="F12" s="1">
-        <v>100</v>
-      </c>
       <c r="G12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -2845,22 +2658,25 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>4</v>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>35</v>
       </c>
-      <c r="F13" s="1">
-        <v>75</v>
-      </c>
       <c r="G13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -2868,22 +2684,25 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>4</v>
+      <c r="D14" s="7">
+        <v>3</v>
       </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
-        <v>60</v>
-      </c>
       <c r="G14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
@@ -2891,20 +2710,23 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>35</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>240</v>
       </c>
-      <c r="G15" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2914,22 +2736,25 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
+      <c r="D16" s="7">
+        <v>3</v>
       </c>
       <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>30</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>70</v>
       </c>
-      <c r="G16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -2937,22 +2762,25 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>40</v>
       </c>
-      <c r="F17" s="1">
-        <v>150</v>
-      </c>
       <c r="G17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H17" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
@@ -2960,68 +2788,77 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>45</v>
       </c>
-      <c r="F18" s="1">
-        <v>600</v>
-      </c>
       <c r="G18" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>500</v>
+      </c>
+      <c r="H18" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
       </c>
       <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>50</v>
       </c>
-      <c r="F19" s="1">
-        <v>100</v>
-      </c>
       <c r="G19" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
         <v>50</v>
       </c>
-      <c r="F20" s="1">
-        <v>180</v>
-      </c>
       <c r="G20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
@@ -3029,23 +2866,57 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
-        <v>10</v>
+      <c r="D21" s="7">
+        <v>4</v>
       </c>
       <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>120</v>
+      </c>
+      <c r="H21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <v>40</v>
       </c>
-      <c r="F21" s="1">
-        <v>70</v>
-      </c>
-      <c r="G21" s="1">
-        <v>25</v>
+      <c r="G22" s="1">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G2 D12:G21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H2 E12:H22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3055,28 +2926,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.625" style="1"/>
-    <col min="10" max="14" width="4.625" style="5"/>
-    <col min="15" max="16384" width="4.625" style="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.625" style="1"/>
+    <col min="11" max="15" width="4.625" style="5"/>
+    <col min="16" max="16384" width="4.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" customHeight="1">
+    <row r="1" spans="1:15" ht="31.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3084,197 +2956,208 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="L3" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>45</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
       <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>60</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="9">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="9">
         <v>15</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="J7" s="5"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="9">
         <v>15</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>22</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>101</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>102</v>
       </c>
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>50</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="N10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B9:B10">
+  <conditionalFormatting sqref="B9:C10">
     <cfRule type="expression" dxfId="1" priority="10">
       <formula>#REF!=0</formula>
     </cfRule>
@@ -3289,7 +3172,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3303,25 +3186,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3428,4 +3311,65 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="-45" windowWidth="16035" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="4395" yWindow="45" windowWidth="16035" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="treat" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$K$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -96,8 +96,98 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Aspire</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Aspire:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-1代表所有目标</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0代表自身
+x代表随机x个目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Aspire:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+增强伤害
+伤害减免
+防御点
+魔御点
+防御百分比
+魔御百分比
+攻击速度</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -192,10 +282,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_r</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,10 +292,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>道尊运用的自然之力，为目标恢复生命力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,346 +304,390 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>治愈术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神力战法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂火符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣战甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士入门剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本剑术大成之后可修攻杀，杀伤力更强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观枪术而悟，对敌人造成深层伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚全身怒气发出攻击，造成巨大伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个小火球灼烧目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤天雷审判目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将火球凝聚并压缩到高速旋转，对目标进行剧烈伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤火焰燃烧目标周围空间，对目标产生多次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤天界神兽辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤亡灵界的骷髅辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚自身魔力，打击前方目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤雷云风暴，对目标进行多次审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼唤水木精灵，使一定范围内所有人加速恢复生命力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光如水幕，对敌人造成多次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附体之炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱寒冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxlv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤强力的冰雪风暴对目标造成剧烈伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐日剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如太阳般地炙热剑芒，见者无不沉迷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手举起大刀，对准敌人，眯着眼睛，砍下去吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥火咒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚附带幽冥力量的符咒，对目标造成深层伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂雷闪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者才尽了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤狂暴的雷电，对目标进行毁灭打击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以心印之，将情绪封入火焰，焚化天地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天辟地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤白虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤四方守护之白虎投影分身辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤元素界的月夜之灵辅助战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    此处配置为比例，效果为固定值，持续时间由角色属性及技能等级共同决定。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆月莲华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光如月华般，无孔不入。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体施毒术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr_basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>亡灵召唤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运用符咒将自身隐遁，移动或攻击则隐身失效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施毒术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神力战法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂火符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣战甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士入门剑法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本剑术大成之后可修攻杀，杀伤力更强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>观枪术而悟，对敌人造成深层伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝聚全身怒气发出攻击，造成巨大伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个小火球灼烧目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤天雷审判目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将火球凝聚并压缩到高速旋转，对目标进行剧烈伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者才尽了…</t>
-  </si>
-  <si>
-    <t>作者才尽了…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者才尽了…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤火焰燃烧目标周围空间，对目标产生多次伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤火焰附着于目标，对目标产生持续性伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤天界神兽辅助战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤亡灵界的骷髅辅助战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝聚自身魔力，打击前方目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤雷云风暴，对目标进行多次审判</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝魔成铠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼唤水木精灵，使一定范围内所有人加速恢复生命力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光如水幕，对敌人造成多次伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附体之炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱寒冰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maxlv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤强力的冰雪风暴对目标造成剧烈伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战神守护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逐日剑法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼唤逝去的先祖，获得赐福，大幅减少伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开天斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如太阳般地炙热剑芒，见者无不沉迷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手举起大刀，对准敌人，眯着眼睛，砍下去吧。</t>
+    <t>嗜血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,伤害加深</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,魔防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,物防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,物防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff,减伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff，扣血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体debuff，扣血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，冰冻，单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，定身，多目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻术，隐，自身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻术，隐，伙伴，多目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，麻痹，单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，混乱，单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制，恐惧(放弃动作)，全体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff,减防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽冥火咒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝聚附带幽冥力量的符咒，对目标造成深层伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂雷闪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者才尽了…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤狂暴的雷电，对目标进行毁灭打击。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以心印之，将情绪封入火焰，焚化天地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开天辟地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤白虎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤四方守护之白虎投影分身辅助战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤月灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤元素界的月夜之灵辅助战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>defense</t>
+    <t>add</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    此处配置为比例，效果为固定值，持续时间由角色属性及技能等级共同决定。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战意沸腾，增加25%攻击速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得大地加持，双防增加当前道术*20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力沸腾，增加22%魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐蚀，降低对方护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻止目标回血，并根据道术给目标造成持续伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升目标的物理防御及魔法防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆月莲华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光如月华般，无孔不入。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体施毒术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒雾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>targets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>targets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpr_basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpr_add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,19 +799,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -699,7 +828,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1017,38 +1156,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:11" ht="62.25" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1059,29 +1203,38 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>220000</v>
       </c>
       <c r="D4" s="1">
@@ -1096,11 +1249,20 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1121,18 +1283,27 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>220002</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <f>A6</f>
@@ -1148,13 +1319,22 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1175,18 +1355,27 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>220004</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <f>A8</f>
@@ -1202,13 +1391,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1229,13 +1427,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1256,18 +1463,27 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>220007</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1277,19 +1493,28 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
         <v>101</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1307,21 +1532,30 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>220009</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1334,16 +1568,25 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1364,13 +1607,22 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>7</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1388,21 +1640,30 @@
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>8</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>220012</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1418,18 +1679,27 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>9</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>220013</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1439,24 +1709,33 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>102</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>220014</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1466,19 +1745,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1496,16 +1784,25 @@
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1513,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>220021</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1522,21 +1819,30 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>220017</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1549,16 +1855,25 @@
         <v>10</v>
       </c>
       <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1576,16 +1891,25 @@
         <v>3</v>
       </c>
       <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1603,16 +1927,25 @@
         <v>3</v>
       </c>
       <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="K23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -1620,25 +1953,34 @@
         <v>11</v>
       </c>
       <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -1655,21 +1997,30 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="K25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>220022</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1679,19 +2030,28 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>101</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -1709,16 +2069,25 @@
         <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
         <v>11</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -1736,16 +2105,25 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
         <v>12</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -1763,16 +2141,25 @@
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
         <v>13</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -1790,16 +2177,25 @@
         <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
         <v>14</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -1817,42 +2213,60 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="K31" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>220028</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C32">
-        <v>220007</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>101</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -1873,13 +2287,22 @@
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -1897,16 +2320,25 @@
         <v>10</v>
       </c>
       <c r="F34" s="1">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
         <v>4</v>
       </c>
-      <c r="G34" s="1">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -1921,19 +2353,28 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -1950,16 +2391,25 @@
         <v>4</v>
       </c>
       <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
+      <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -1976,21 +2426,30 @@
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
         <v>15</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>220034</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>220034</v>
@@ -1999,24 +2458,33 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>220035</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>220035</v>
@@ -2028,21 +2496,30 @@
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
         <v>16</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="K39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>220036</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>220036</v>
@@ -2054,21 +2531,30 @@
         <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
         <v>17</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="K40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>220037</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>37</v>
@@ -2080,24 +2566,33 @@
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
         <v>18</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="K41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>220038</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C42">
-        <v>220037</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -2106,24 +2601,33 @@
         <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
         <v>19</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="K42" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>220039</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C43">
-        <v>220038</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2132,24 +2636,33 @@
         <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="K43" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>220040</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C44">
-        <v>220039</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -2158,24 +2671,33 @@
         <v>8</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
         <v>21</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="K44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>220041</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45">
-        <v>220040</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -2184,24 +2706,33 @@
         <v>10</v>
       </c>
       <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1">
         <v>4</v>
       </c>
-      <c r="G45" s="1">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>220042</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C46">
-        <v>220041</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -2210,106 +2741,177 @@
         <v>10</v>
       </c>
       <c r="F46" s="1">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
         <v>4</v>
       </c>
-      <c r="G46" s="1">
+      <c r="J46" s="1">
         <v>4</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>220043</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C47">
-        <v>220042</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
         <v>5</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>4</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>220044</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>220043</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48" s="1">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>220045</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C49">
-        <v>220044</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>220046</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1">
         <v>5</v>
       </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>96</v>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3</v>
+      </c>
+      <c r="J50" s="1">
+        <v>101</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H49"/>
+  <autoFilter ref="A3:K50"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H51">
-    <cfRule type="expression" dxfId="3" priority="9">
+  <conditionalFormatting sqref="A5:K50">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D37 D2:G4 E33:G37 D38:G65467 E26:G31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D37 E26:J31 E33:J37 D2:J4 D38:J65466"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2322,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2341,25 +2943,25 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2369,10 +2971,10 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -2408,10 +3010,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2424,7 +3026,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -2442,7 +3044,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -2476,7 +3078,7 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -2486,10 +3088,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2528,7 +3130,7 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="1">
@@ -2538,7 +3140,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="1">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1">
         <v>18</v>
@@ -2564,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
         <v>11</v>
@@ -2572,7 +3174,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -2580,7 +3182,7 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -2632,7 +3234,7 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="1">
@@ -2642,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -2668,10 +3270,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2684,7 +3286,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="1">
@@ -2736,7 +3338,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -2749,12 +3351,12 @@
         <v>70</v>
       </c>
       <c r="H16" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -2780,7 +3382,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
@@ -2788,7 +3390,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="1">
@@ -2806,7 +3408,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
@@ -2814,7 +3416,7 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>4</v>
       </c>
       <c r="E19" s="1">
@@ -2832,7 +3434,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
@@ -2858,7 +3460,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
@@ -2866,7 +3468,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>4</v>
       </c>
       <c r="E21" s="1">
@@ -2884,7 +3486,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
@@ -2910,8 +3512,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A3:A22">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2925,245 +3527,315 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.625" style="1"/>
-    <col min="11" max="15" width="4.625" style="5"/>
-    <col min="16" max="16384" width="4.625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="1"/>
+    <col min="12" max="16" width="4.625" style="5"/>
+    <col min="17" max="16384" width="4.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:16" ht="31.5" customHeight="1">
+      <c r="B1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="M3" s="4"/>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="K3" s="5"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>60</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="5"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="5"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="E8" s="8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="10">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="10">
+        <v>101</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>101</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>102</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B9:C10">
-    <cfRule type="expression" dxfId="1" priority="10">
+  <conditionalFormatting sqref="C9:E10">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A9">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3186,25 +3858,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3318,7 +3990,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3328,16 +4000,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="45" windowWidth="16035" windowHeight="9240"/>
+    <workbookView xWindow="4395" yWindow="45" windowWidth="16035" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -1158,11 +1158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2924,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3010,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
         <v>12</v>
@@ -3088,10 +3088,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H6" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3169,7 +3169,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3192,10 +3192,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H10" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3247,7 +3247,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3270,10 +3270,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3348,10 +3348,10 @@
         <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H16" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3504,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="45" windowWidth="16035" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="4395" yWindow="45" windowWidth="16035" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="treat" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$K$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -178,7 +178,8 @@
 魔御点
 防御百分比
 魔御百分比
-攻击速度</t>
+攻击速度
+HP恢复</t>
         </r>
       </text>
     </comment>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -674,10 +675,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,6 +685,22 @@
   <si>
     <t>add</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕咬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,7 +841,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1156,13 +1179,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+    <row r="4" spans="1:11" s="1" customFormat="1" hidden="1">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -1262,7 +1286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1298,7 +1322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1370,7 +1394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -1406,7 +1430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1478,7 +1502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -1550,7 +1574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -1586,7 +1610,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1658,7 +1682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -1837,7 +1861,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -1909,7 +1933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1945,7 +1969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -1980,7 +2004,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -2015,7 +2039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -2045,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2087,7 +2111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2123,7 +2147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2195,7 +2219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2231,7 +2255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2260,13 +2284,13 @@
         <v>3</v>
       </c>
       <c r="J32" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2374,7 +2398,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2409,7 +2433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2479,7 +2503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39">
         <v>220035</v>
       </c>
@@ -2514,7 +2538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40">
         <v>220036</v>
       </c>
@@ -2549,7 +2573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41">
         <v>220037</v>
       </c>
@@ -2584,7 +2608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42">
         <v>220038</v>
       </c>
@@ -2619,7 +2643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>220039</v>
       </c>
@@ -2654,7 +2678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44">
         <v>220040</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45">
         <v>220041</v>
       </c>
@@ -2724,7 +2748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46">
         <v>220042</v>
       </c>
@@ -2829,7 +2853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49">
         <v>220045</v>
       </c>
@@ -2864,7 +2888,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50">
         <v>220046</v>
       </c>
@@ -2893,20 +2917,96 @@
         <v>3</v>
       </c>
       <c r="J50" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="51" spans="1:11" hidden="1">
+      <c r="A51">
+        <v>220101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>101</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1">
+      <c r="A52">
+        <v>220102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>102</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:K50"/>
+  <autoFilter ref="A3:K52">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:K50">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="A5:K50 A51:C52">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2922,16 +3022,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.5" bestFit="1" customWidth="1"/>
@@ -3510,10 +3610,67 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="3">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="3">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:A22">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3528,15 +3685,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="10" bestFit="1" customWidth="1"/>
@@ -3574,13 +3731,13 @@
         <v>95</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H3" s="1"/>
       <c r="K3" s="5"/>
@@ -3773,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3791,25 +3948,117 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="10">
         <v>101</v>
       </c>
       <c r="C11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="10">
+        <v>102</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10">
+        <v>15</v>
+      </c>
+      <c r="G12" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="10">
+        <v>103</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="10">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="10">
+        <v>105</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G15" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3819,16 +4068,21 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C9:E10">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A9">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A9">
+  <conditionalFormatting sqref="A11:A14">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=0</formula>
     </cfRule>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -102,7 +102,7 @@
     <author>Aspire</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -700,6 +700,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1190,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1251,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" hidden="1">
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>220000</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38">
         <v>220034</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>220035</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>220036</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>220037</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>220038</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>220039</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>220040</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47">
         <v>220043</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48">
         <v>220044</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>220046</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>220101</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>220102</v>
       </c>
@@ -2997,7 +3001,8 @@
   <autoFilter ref="A3:K52">
     <filterColumn colId="8">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3025,7 +3030,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3685,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
@@ -3696,19 +3701,20 @@
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="1"/>
-    <col min="12" max="16" width="4.625" style="5"/>
-    <col min="17" max="16384" width="4.625" style="1"/>
+    <col min="4" max="4" width="5.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="1"/>
+    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="1"/>
+    <col min="13" max="17" width="4.625" style="5"/>
+    <col min="18" max="16384" width="4.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" customHeight="1">
+    <row r="1" spans="1:17" ht="31.5" customHeight="1">
       <c r="B1" s="13" t="s">
         <v>80</v>
       </c>
@@ -3719,8 +3725,9 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="J1" s="13"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
@@ -3728,24 +3735,27 @@
         <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="K3" s="5"/>
-      <c r="N3" s="4"/>
+      <c r="I3" s="1"/>
+      <c r="L3" s="5"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3756,27 +3766,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="10"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3787,27 +3800,30 @@
         <v>3</v>
       </c>
       <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1</v>
       </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="10"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3821,21 +3837,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>8</v>
       </c>
-      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="5"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="K6" s="10"/>
+      <c r="L6" s="5"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -3849,21 +3868,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>9</v>
       </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="5"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="K7" s="10"/>
+      <c r="L7" s="5"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3877,21 +3899,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="K8" s="10"/>
+      <c r="L8" s="5"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -3905,21 +3930,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <v>6</v>
       </c>
-      <c r="G9" s="10">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="5"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="K9" s="10"/>
+      <c r="L9" s="5"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -3930,24 +3958,27 @@
         <v>3</v>
       </c>
       <c r="D10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="5"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="K10" s="10"/>
+      <c r="L10" s="5"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3958,19 +3989,22 @@
         <v>4</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
         <v>8</v>
-      </c>
-      <c r="F11" s="10">
-        <v>15</v>
       </c>
       <c r="G11" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="H11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3981,19 +4015,22 @@
         <v>4</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
         <v>8</v>
-      </c>
-      <c r="F12" s="10">
-        <v>15</v>
       </c>
       <c r="G12" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="H12" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -4004,19 +4041,22 @@
         <v>3</v>
       </c>
       <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10">
         <v>-1</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>8</v>
-      </c>
-      <c r="F13" s="10">
-        <v>15</v>
       </c>
       <c r="G13" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="H13" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -4027,19 +4067,22 @@
         <v>3</v>
       </c>
       <c r="D14" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="H14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
@@ -4050,24 +4093,27 @@
         <v>3</v>
       </c>
       <c r="D15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
       </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C9:E10">
+  <conditionalFormatting sqref="C9:F10">
     <cfRule type="expression" dxfId="4" priority="13">
       <formula>#REF!=0</formula>
     </cfRule>

--- a/documents/skill and buff.xlsx
+++ b/documents/skill and buff.xlsx
@@ -12,6 +12,7 @@
     <sheet name="buff" sheetId="2" r:id="rId3"/>
     <sheet name="summon" sheetId="6" r:id="rId4"/>
     <sheet name="treat" sheetId="7" r:id="rId5"/>
+    <sheet name="name" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$3:$K$52</definedName>
@@ -102,7 +103,7 @@
     <author>Aspire</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,14 @@
 防御百分比
 魔御百分比
 攻击速度
-HP恢复</t>
+HP恢复
+定身 = 201
+麻痹
+冰冻
+眩晕
+恐惧
+魅惑
+睡眠</t>
         </r>
       </text>
     </comment>
@@ -188,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
   <si>
     <t>冰咆哮</t>
   </si>
@@ -655,15 +663,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>控制，混乱，单体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控制，恐惧(放弃动作)，全体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -699,11 +699,213 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定身</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>魅惑</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>麻痹戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_duration_attack_up</t>
+  </si>
+  <si>
+    <t>icon_duration_speed_up</t>
+  </si>
+  <si>
+    <t>icon_duration_dot</t>
+  </si>
+  <si>
+    <t>icon_duration_dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_duration_defence_down</t>
+  </si>
+  <si>
+    <t>icon_duration_defence_up</t>
+  </si>
+  <si>
+    <t>icon_duration_stun</t>
+  </si>
+  <si>
+    <t>icon_duration_freezing</t>
+  </si>
+  <si>
+    <t>icon_duration_sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>icon_duration_invincibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>免疫不良</t>
+  </si>
+  <si>
+    <t>icon_duration_immune</t>
+  </si>
+  <si>
+    <t>效果名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_duration_shield</t>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
+    <t>控制，混乱，单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +1047,32 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1183,14 +1410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1263,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="6">
-        <v>220000</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1298,8 +1524,7 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <f>A5</f>
-        <v>220001</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1326,16 +1551,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>220002</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6">
-        <f>A6</f>
-        <v>220002</v>
+      <c r="C6" s="6">
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1370,8 +1594,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <f>A7</f>
-        <v>220003</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1405,9 +1628,8 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
-        <f>A8</f>
-        <v>220004</v>
+      <c r="C8" s="6">
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1442,8 +1664,7 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C30" si="0">A9</f>
-        <v>220005</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1477,9 +1698,8 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>220006</v>
+      <c r="C10" s="6">
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -1514,8 +1734,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>220007</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -1542,16 +1761,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>220008</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>220008</v>
+      <c r="C12" s="6">
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1578,7 +1796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -1586,29 +1804,28 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>220009</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>117</v>
@@ -1621,9 +1838,8 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>220010</v>
+      <c r="C14" s="6">
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -1658,8 +1874,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>220011</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1693,9 +1908,8 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>220012</v>
+      <c r="C16" s="6">
+        <v>13</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1722,7 +1936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -1730,8 +1944,7 @@
         <v>105</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>220013</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1758,16 +1971,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>220014</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>220014</v>
+      <c r="C18" s="6">
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -1802,8 +2014,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>220015</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1830,42 +2041,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>220016</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
-        <v>16</v>
+      <c r="C20" s="6">
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
       <c r="G20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -1873,8 +2084,7 @@
         <v>106</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>220017</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -1901,16 +2111,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>220018</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>220018</v>
+      <c r="C22" s="6">
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -1928,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1937,7 +2146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -1945,8 +2154,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>220019</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -1964,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1973,42 +2181,42 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>220020</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
-        <v>20</v>
+      <c r="C24" s="6">
+        <v>21</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
         <v>6</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -2016,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -2051,8 +2259,7 @@
         <v>56</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>220022</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -2087,8 +2294,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>220023</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -2123,8 +2329,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>220024</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -2159,8 +2364,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>220025</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -2195,8 +2399,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>220026</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -2223,7 +2426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -2231,8 +2434,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <f>A31</f>
-        <v>220027</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -2241,19 +2443,19 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>121</v>
@@ -2267,7 +2469,7 @@
         <v>94</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -2294,7 +2496,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -2302,8 +2504,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C35" si="1">A33</f>
-        <v>220029</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -2330,7 +2531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -2338,8 +2539,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>220030</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -2366,7 +2566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -2374,8 +2574,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>220031</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -2402,7 +2601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -2445,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>220033</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -2472,7 +2671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>220034</v>
       </c>
@@ -2480,7 +2679,7 @@
         <v>60</v>
       </c>
       <c r="C38">
-        <v>220034</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -2515,7 +2714,7 @@
         <v>61</v>
       </c>
       <c r="C39">
-        <v>220035</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -2550,7 +2749,7 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>220036</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -2585,7 +2784,7 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2620,7 +2819,7 @@
         <v>67</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -2655,7 +2854,7 @@
         <v>69</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2690,7 +2889,7 @@
         <v>70</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -2717,7 +2916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>220041</v>
       </c>
@@ -2725,7 +2924,7 @@
         <v>77</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -2752,7 +2951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>220042</v>
       </c>
@@ -2760,7 +2959,7 @@
         <v>75</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -2787,7 +2986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>220043</v>
       </c>
@@ -2795,7 +2994,7 @@
         <v>79</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -2822,7 +3021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>220044</v>
       </c>
@@ -2830,7 +3029,7 @@
         <v>107</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -2857,7 +3056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>220045</v>
       </c>
@@ -2865,7 +3064,7 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -2874,22 +3073,22 @@
         <v>10</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H49" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I49" s="1">
         <v>6</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2897,10 +3096,10 @@
         <v>220046</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -2924,7 +3123,7 @@
         <v>104</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2932,7 +3131,7 @@
         <v>220101</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2959,7 +3158,7 @@
         <v>101</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2967,7 +3166,7 @@
         <v>220102</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2994,24 +3193,17 @@
         <v>102</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K52">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="1"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:K52"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A5:K50 A51:C52">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="A5:K5 A51:C52 C7 C9 C11 C13 C15 C17 C19 A6:B24 D6:K24 C21 C23 A25:K50">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,7 +3222,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3617,7 +3809,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3">
         <v>101</v>
@@ -3643,7 +3835,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3">
         <v>102</v>
@@ -3670,12 +3862,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:A22">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A24">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3690,31 +3882,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="1"/>
-    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="1"/>
-    <col min="13" max="17" width="4.625" style="5"/>
-    <col min="18" max="16384" width="4.625" style="1"/>
+    <col min="3" max="5" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="1"/>
+    <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="1"/>
+    <col min="16" max="20" width="4.625" style="5"/>
+    <col min="21" max="16384" width="4.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" customHeight="1">
+    <row r="1" spans="1:20" ht="31.5" customHeight="1">
       <c r="B1" s="13" t="s">
         <v>80</v>
       </c>
@@ -3726,377 +3919,488 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="I3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="L3" s="1"/>
+      <c r="O3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="O4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="11">
+        <v>126</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
         <v>-1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="I5" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="J5" s="9">
         <v>8</v>
       </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="11">
+        <v>113</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="11">
+        <v>119</v>
+      </c>
+      <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
         <v>20</v>
       </c>
-      <c r="H6" s="9">
+      <c r="K7" s="9">
         <v>8</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="5"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="5"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="11">
+        <v>113</v>
+      </c>
+      <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="J8" s="9">
         <v>9</v>
       </c>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="5"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="5"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="C9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="11">
+        <v>122</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="J9" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="9">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="5"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="K9" s="9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="5"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="C10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="10">
+        <v>111</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
         <v>6</v>
       </c>
-      <c r="H9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="5"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="5"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="K10" s="10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="5"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="10">
         <v>101</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10">
+        <v>114</v>
+      </c>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
         <v>8</v>
       </c>
-      <c r="G11" s="10">
+      <c r="J11" s="10">
         <v>15</v>
       </c>
-      <c r="H11" s="10">
+      <c r="K11" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="10">
         <v>102</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="10">
+        <v>124</v>
+      </c>
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="G12" s="10">
-        <v>15</v>
-      </c>
-      <c r="H12" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="J12" s="10">
+        <v>12</v>
+      </c>
+      <c r="K12" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="10">
         <v>103</v>
       </c>
-      <c r="C13" s="10">
-        <v>3</v>
+      <c r="C13" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D13" s="10">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
         <v>-1</v>
       </c>
-      <c r="F13" s="10">
+      <c r="I13" s="10">
         <v>8</v>
       </c>
-      <c r="G13" s="10">
+      <c r="J13" s="10">
         <v>15</v>
       </c>
-      <c r="H13" s="10">
+      <c r="K13" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10">
         <v>104</v>
       </c>
-      <c r="C14" s="10">
-        <v>3</v>
+      <c r="C14" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D14" s="10">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
       </c>
       <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10">
         <v>10</v>
       </c>
-      <c r="H14" s="10">
+      <c r="K14" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>133</v>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="10">
-        <v>105</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -4104,35 +4408,263 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>203</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>202</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="10">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>201</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
+        <v>203</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="10">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>206</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10">
+        <v>204</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="10">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>204</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="10">
+        <v>205</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="10">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>205</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="10">
+        <v>206</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="10">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>202</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="F25" s="3"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="F26" s="3"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="F27" s="3"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="F28" s="3"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="F29" s="3"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="F30" s="3"/>
+      <c r="I30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C9:F10">
-    <cfRule type="expression" dxfId="4" priority="13">
+  <conditionalFormatting sqref="E10 G10:I10">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A5:A7">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A9">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="A8:A10">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A19">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4144,13 +4676,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
@@ -4184,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10081</v>
+        <v>100099</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4207,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10083</v>
+        <v>100101</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4230,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10082</v>
+        <v>100100</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -4253,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10102</v>
+        <v>100140</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4274,7 +4806,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:G5">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4290,7 +4822,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4344,4 +4876,228 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2:B4">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>